--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="性能" sheetId="8" r:id="rId8"/>
     <sheet name="配置" sheetId="9" r:id="rId9"/>
     <sheet name="功能规划" sheetId="10" r:id="rId10"/>
+    <sheet name="series" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +205,42 @@
   </si>
   <si>
     <t>联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持formatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增饼图时应动画过渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关饼块时，该饼块应有动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图支持showZero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持设置allowdecimel是否允许小数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持visible设置响应图例变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始计算时需要考虑series visible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,6 +617,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -591,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,6 +704,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
@@ -687,6 +742,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -721,10 +801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,6 +865,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -857,10 +949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -897,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,6 +1014,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1057,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,14 @@
   </si>
   <si>
     <t>初始计算时需要考虑series visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标轴标题支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持label居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,6 +638,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -801,9 +814,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -873,6 +886,11 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text line  等核心配置扁平化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>option merge由jsx组件自己完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +245,14 @@
   </si>
   <si>
     <t>支持label居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text 等核心配置扁平化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持visible初始状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,22 +631,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -664,92 +673,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +807,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -870,27 +879,27 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +987,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1045,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1084,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,12 +1094,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -276,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,11 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -611,7 +618,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,7 +642,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -650,7 +657,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
     </row>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,14 @@
   </si>
   <si>
     <t>支持visible初始状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug:初始时隐藏显示了label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴影、渐变、滤镜、背景图 defs支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,6 +667,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1088,9 +1101,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1109,6 +1122,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>阴影、渐变、滤镜、背景图 defs支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻度线不居底，居于0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每种坐标系都应该提供根据配置和数据获取坐标的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持纵向多列布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本布局优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color % index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持类目间布局（折线图可以在起点，而柱状图在中间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,55 +647,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,6 +863,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,10 +876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -922,6 +955,16 @@
         <v>54</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,7 +976,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -961,7 +1004,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1037,6 +1084,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="配置" sheetId="9" r:id="rId9"/>
     <sheet name="功能规划" sheetId="10" r:id="rId10"/>
     <sheet name="series" sheetId="11" r:id="rId11"/>
+    <sheet name="bug" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面积图支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统一组件和chart模型,userHTML,zIndex,dependencies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,6 +283,22 @@
   </si>
   <si>
     <t>支持类目间布局（折线图可以在起点，而柱状图在中间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部隐藏的添加饼块不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个图表分配一个唯一的id，用来clippath,defs等唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一组件的数据提供形式 值型  数组型  对象型 并提供统一的数据处理服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +341,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -340,12 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -647,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,45 +682,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -714,99 +743,99 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +849,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,10 +859,43 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -855,17 +917,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -876,93 +938,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1065,7 @@
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1054,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1065,30 +1124,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.125" customWidth="1"/>
+    <col min="1" max="1" width="71.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1112,12 +1181,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1166,17 +1235,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,10 @@
   </si>
   <si>
     <t>统一组件的数据提供形式 值型  数组型  对象型 并提供统一的数据处理服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化状态完全由数据驱动，更新数据时不保留原有状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,6 +1162,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="功能规划" sheetId="10" r:id="rId10"/>
     <sheet name="series" sheetId="11" r:id="rId11"/>
     <sheet name="bug" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="各种charts优缺点" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持类目间布局（折线图可以在起点，而柱状图在中间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部隐藏的添加饼块不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +299,30 @@
   </si>
   <si>
     <t>初始化状态完全由数据驱动，更新数据时不保留原有状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highcharts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标轴nameGap只能相对轴线，导致位置可能与label重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置嵌套过浅过散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置嵌套过深，有时又过浅(emphasize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持类目间布局（折线图可以在起点，而柱状图在中间）,支持刻度居类目间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +749,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -894,12 +914,40 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -944,13 +992,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="70.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1014,7 +1062,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1025,7 +1073,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1156,17 +1204,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">支持hover状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>支持内部居左或居中对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以interactive状态为主状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,53 +702,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -774,92 +770,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +879,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -928,23 +924,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -969,17 +965,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -992,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,76 +1000,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1086,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,29 +1093,25 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1165,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1189,32 +1181,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1238,12 +1230,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1260,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1292,17 +1284,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饼图支持showZero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持设置allowdecimel是否允许小数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>支持类目间布局（折线图可以在起点，而柱状图在中间）,支持刻度居类目间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图支持showZero配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,7 +711,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -722,33 +722,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +879,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -924,23 +924,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1049,27 +1049,27 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1191,22 +1191,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/优化.xlsx
+++ b/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="681" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="饼图" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +361,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -380,13 +374,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,10 +737,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -912,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,7 +948,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,12 +962,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -989,7 +982,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1026,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1053,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1063,7 +1056,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1083,7 +1076,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
